--- a/242/242_真理値表.xlsx
+++ b/242/242_真理値表.xlsx
@@ -19,193 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>z</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>簡単化前</t>
-    <rPh sb="0" eb="3">
-      <t>カンタンカ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>マエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>簡単化後</t>
-    <rPh sb="0" eb="3">
-      <t>カンタンカ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回路規模の比較</t>
-  </si>
-  <si>
-    <t>表3 に示す真理値表を満足する論理回路，論理式を作成せよ．論理式はカルノー図用いた簡単化を行うこと．論理回路，論理式を作成後，シミュレーションを行い表3 と一致するか確認せよ．</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>表３</t>
-    <rPh sb="0" eb="1">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Z</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Z = a + b'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実験2.2</t>
-    <rPh sb="0" eb="2">
-      <t>ジッケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カルノー図を用いた簡単化</t>
-    <rPh sb="4" eb="5">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンタン</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>f = b' + a'b</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>f = xyz + x'y'z' + xy'z + x'yz'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>x</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>z</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実験2.3</t>
-    <rPh sb="0" eb="2">
-      <t>ジッケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>回路規模の比較</t>
-    <rPh sb="0" eb="2">
-      <t>カイロ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キボ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒカク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>f = a'b'c'd + ab'c'd' + a'b'cd' + ab'cd'</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>簡単化前</t>
-    <rPh sb="0" eb="4">
-      <t>カンタンカマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>簡単化後</t>
-    <rPh sb="0" eb="4">
-      <t>カンタンカゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>and2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>or2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>not</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実験2.4</t>
-    <rPh sb="0" eb="2">
-      <t>ジッケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>実験1</t>
     <rPh sb="0" eb="2">
@@ -351,14 +165,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(A,B) = (0,0) =&gt; S = 0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(A,B) = (0,1),(1,0),(1,1) =&gt; C = 1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -408,20 +214,156 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>C = AB</t>
+    <t>C = AB（これ以上簡単化できない）</t>
+    <rPh sb="9" eb="11">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>カンタンカ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>S = AB' + A'B + AB（簡単化前）</t>
-    <rPh sb="19" eb="21">
-      <t>カンタン</t>
+    <t>S = AB' + A'B（これ以上簡単化できない）</t>
+    <rPh sb="16" eb="18">
+      <t>イジョウ</t>
     </rPh>
-    <rPh sb="21" eb="22">
-      <t>カ</t>
+    <rPh sb="18" eb="21">
+      <t>カンタンカ</t>
     </rPh>
-    <rPh sb="22" eb="23">
-      <t>マエ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回路図を作成し，シミュレーションする．真理値表を作成する</t>
+    <rPh sb="0" eb="3">
+      <t>カイロズ</t>
     </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="19" eb="23">
+      <t>シンリチヒョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実験2</t>
+    <rPh sb="0" eb="2">
+      <t>ジッケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全加算器</t>
+    <rPh sb="0" eb="4">
+      <t>ゼンカサンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力：２つの１桁の値，桁上り入力</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケタアガ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A,B,Ci</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加算結果：S，桁上げ：Co</t>
+    <rPh sb="0" eb="2">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケタア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A + B + Ci = CoS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Coについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(A,B) = (0,0),(1,1) =&gt; S = 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(A,B) = (0,1),(1,0) =&gt; C = 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ci</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Co</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(A,B,Ci) = (0,0,0),(1,0,0),(0,1,0),(0,0,1) =&gt; Co = 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(A,B,Ci) = (1,1,0),(1,0,1),(0,1,1),(1,1,1) =&gt; Co = 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(A,B,Ci) = (0,0,0),(1,1,0),(1,0,1),(0,1,1) =&gt; S = 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(A,B,Ci) = (1,0,0),(0,1,0),(0,0,1),(1,1,1) =&gt; S = 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桁上げ：Co</t>
+    <rPh sb="0" eb="2">
+      <t>ケタア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C = ABCi' + AB'Ci + A'BCi' + ABCi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S = AB'Ci' + A'BCi' + A'B'Ci + ABCi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C = ACi + BCi + AB</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -429,7 +371,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,8 +463,17 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,41 +482,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -602,6 +523,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -619,11 +549,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -635,24 +565,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -678,31 +590,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -714,38 +602,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -754,19 +612,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1074,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P533"/>
+  <dimension ref="B2:P510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:M29"/>
+    <sheetView tabSelected="1" topLeftCell="B53" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73:M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1091,68 +970,68 @@
   <sheetData>
     <row r="2" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
+        <v>0</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
+      <c r="C3" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>
-      <c r="C4" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
+      <c r="C4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
-      <c r="C5" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
+      <c r="C5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1163,13 +1042,13 @@
     </row>
     <row r="6" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
-      <c r="C6" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="C6" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1180,13 +1059,13 @@
     </row>
     <row r="7" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
-      <c r="C7" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
+      <c r="C7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1197,13 +1076,13 @@
     </row>
     <row r="8" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
-      <c r="C8" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="C8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1214,13 +1093,13 @@
     </row>
     <row r="9" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B9" s="1"/>
-      <c r="C9" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+      <c r="C9" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1231,13 +1110,13 @@
     </row>
     <row r="10" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1"/>
-      <c r="C10" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
+      <c r="C10" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1248,13 +1127,13 @@
     </row>
     <row r="11" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="1"/>
-      <c r="C11" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
+      <c r="C11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1265,31 +1144,31 @@
     </row>
     <row r="12" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="1"/>
-      <c r="C12" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
+      <c r="C12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="1"/>
-      <c r="C13" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
+      <c r="C13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -1299,13 +1178,13 @@
     </row>
     <row r="14" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
-      <c r="C14" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="C14" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1316,14 +1195,14 @@
     </row>
     <row r="15" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1"/>
-      <c r="C15" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
+      <c r="C15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1333,14 +1212,14 @@
     </row>
     <row r="16" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="1"/>
-      <c r="C16" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
+      <c r="C16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -1350,12 +1229,12 @@
     </row>
     <row r="17" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1367,36 +1246,36 @@
       <c r="B18" s="1">
         <v>2</v>
       </c>
-      <c r="C18" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
+      <c r="C18" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
       <c r="N18" s="2"/>
     </row>
     <row r="19" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>54</v>
+      <c r="D19" s="7"/>
+      <c r="E19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -1408,17 +1287,17 @@
     <row r="20" spans="2:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="16">
+      <c r="D20" s="12"/>
+      <c r="E20" s="10">
         <v>0</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="8">
         <v>0</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20" s="11">
         <v>0</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="13">
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
@@ -1431,17 +1310,17 @@
     <row r="21" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="16">
+      <c r="D21" s="12"/>
+      <c r="E21" s="10">
         <v>1</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="8">
         <v>0</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="11">
         <v>0</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="13">
         <v>1</v>
       </c>
       <c r="I21" s="2"/>
@@ -1454,17 +1333,17 @@
     <row r="22" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8">
         <v>0</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="8">
         <v>1</v>
       </c>
-      <c r="G22" s="15">
+      <c r="G22" s="9">
         <v>0</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="13">
         <v>1</v>
       </c>
       <c r="I22" s="2"/>
@@ -1477,18 +1356,18 @@
     <row r="23" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8">
         <v>1</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="8">
         <v>1</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G23" s="9">
         <v>1</v>
       </c>
-      <c r="H23" s="27">
-        <v>1</v>
+      <c r="H23" s="13">
+        <v>0</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1515,10 +1394,10 @@
     <row r="25" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1531,188 +1410,200 @@
       <c r="B26" s="1">
         <v>3</v>
       </c>
-      <c r="C26" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
+      <c r="C26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
       <c r="N26" s="2"/>
     </row>
     <row r="27" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B27" s="1"/>
-      <c r="C27" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
+      <c r="C27" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
       <c r="N27" s="2"/>
     </row>
     <row r="28" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B28" s="2"/>
-      <c r="C28" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
+      <c r="C28" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
       <c r="N28" s="2"/>
     </row>
     <row r="29" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B29" s="2"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
       <c r="N29" s="2"/>
     </row>
     <row r="30" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B30" s="1"/>
-      <c r="C30" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="40"/>
+      <c r="C30" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
       <c r="N30" s="2"/>
     </row>
     <row r="31" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B31" s="2"/>
-      <c r="C31" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
+      <c r="C31" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
       <c r="N31" s="2"/>
     </row>
     <row r="32" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
       <c r="N32" s="2"/>
     </row>
-    <row r="33" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
+    <row r="33" spans="2:16" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
       <c r="N33" s="2"/>
     </row>
-    <row r="34" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B34" s="1">
-        <v>1</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
+    <row r="34" spans="2:16" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
     </row>
-    <row r="35" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B35" s="1"/>
-      <c r="C35" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
+    <row r="35" spans="2:16" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="10">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>0</v>
+      </c>
+      <c r="G35" s="11">
+        <v>0</v>
+      </c>
+      <c r="H35" s="18">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
     </row>
-    <row r="36" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="10" t="s">
+      <c r="D36" s="12"/>
+      <c r="E36" s="10">
+        <v>1</v>
+      </c>
+      <c r="F36" s="8">
         <v>0</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="18">
         <v>1</v>
       </c>
-      <c r="G36" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" s="28"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -1720,20 +1611,22 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
     </row>
-    <row r="37" spans="2:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="16">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8">
         <v>0</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="8">
+        <v>1</v>
+      </c>
+      <c r="G37" s="9">
         <v>0</v>
       </c>
-      <c r="G37" s="17">
+      <c r="H37" s="18">
         <v>1</v>
       </c>
-      <c r="H37" s="28"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
@@ -1741,20 +1634,22 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
     </row>
-    <row r="38" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="16">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8">
         <v>1</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="8">
+        <v>1</v>
+      </c>
+      <c r="G38" s="9">
+        <v>1</v>
+      </c>
+      <c r="H38" s="18">
         <v>0</v>
       </c>
-      <c r="G38" s="17">
-        <v>1</v>
-      </c>
-      <c r="H38" s="28"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
@@ -1762,20 +1657,14 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="39" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:16" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14">
-        <v>0</v>
-      </c>
-      <c r="F39" s="14">
-        <v>1</v>
-      </c>
-      <c r="G39" s="15">
-        <v>1</v>
-      </c>
-      <c r="H39" s="28"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
@@ -1783,20 +1672,14 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
     </row>
-    <row r="40" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:16" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14">
-        <v>1</v>
-      </c>
-      <c r="F40" s="14">
-        <v>1</v>
-      </c>
-      <c r="G40" s="15">
-        <v>0</v>
-      </c>
-      <c r="H40" s="28"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
@@ -1804,510 +1687,494 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
     </row>
-    <row r="41" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
+    <row r="41" spans="2:16" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
     </row>
-    <row r="42" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
+    <row r="42" spans="2:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
       <c r="N42" s="2"/>
     </row>
-    <row r="43" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="28"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-    </row>
-    <row r="44" spans="2:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="1"/>
+      <c r="C43" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+    </row>
+    <row r="44" spans="2:16" ht="19.5" x14ac:dyDescent="0.15">
       <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="16">
-        <v>0</v>
-      </c>
-      <c r="F44" s="14">
-        <v>0</v>
-      </c>
-      <c r="G44" s="17">
-        <v>1</v>
-      </c>
-      <c r="H44" s="28"/>
+      <c r="C44" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
-    </row>
-    <row r="45" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+    </row>
+    <row r="45" spans="2:16" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="16">
-        <v>1</v>
-      </c>
-      <c r="F45" s="14">
-        <v>0</v>
-      </c>
-      <c r="G45" s="17">
-        <v>1</v>
-      </c>
-      <c r="H45" s="28"/>
+      <c r="C45" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
-    </row>
-    <row r="46" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+    </row>
+    <row r="46" spans="2:16" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14">
-        <v>0</v>
-      </c>
-      <c r="F46" s="14">
-        <v>1</v>
-      </c>
-      <c r="G46" s="15">
-        <v>1</v>
-      </c>
-      <c r="H46" s="28"/>
+      <c r="C46" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
-    </row>
-    <row r="47" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+    </row>
+    <row r="47" spans="2:16" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14">
-        <v>1</v>
-      </c>
-      <c r="F47" s="14">
-        <v>1</v>
-      </c>
-      <c r="G47" s="15">
-        <v>0</v>
-      </c>
-      <c r="H47" s="28"/>
+      <c r="C47" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
-    </row>
-    <row r="48" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+    </row>
+    <row r="48" spans="2:16" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B48" s="1"/>
+      <c r="C48" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
     </row>
     <row r="49" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B49" s="1">
-        <v>2</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="2"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
     </row>
     <row r="50" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B50" s="1"/>
-      <c r="C50" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="40"/>
-      <c r="N50" s="2"/>
-    </row>
-    <row r="51" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H51" s="28"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-    </row>
-    <row r="52" spans="2:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="14">
-        <v>0</v>
-      </c>
-      <c r="E52" s="16">
-        <v>0</v>
-      </c>
-      <c r="F52" s="14">
-        <v>0</v>
-      </c>
-      <c r="G52" s="17">
-        <v>1</v>
-      </c>
-      <c r="H52" s="28"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
+      <c r="C50" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B51" s="1"/>
+      <c r="C51" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+    </row>
+    <row r="52" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B52" s="1"/>
+      <c r="C52" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-    </row>
-    <row r="53" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="14">
-        <v>1</v>
-      </c>
-      <c r="E53" s="16">
-        <v>0</v>
-      </c>
-      <c r="F53" s="14">
-        <v>0</v>
-      </c>
-      <c r="G53" s="17">
-        <v>0</v>
-      </c>
-      <c r="H53" s="28"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
+    </row>
+    <row r="53" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B53" s="1"/>
+      <c r="C53" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-    </row>
-    <row r="54" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="14">
-        <v>0</v>
-      </c>
-      <c r="E54" s="14">
-        <v>1</v>
-      </c>
-      <c r="F54" s="14">
-        <v>0</v>
-      </c>
-      <c r="G54" s="15">
-        <v>1</v>
-      </c>
-      <c r="H54" s="28"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
+      <c r="N53" s="14"/>
+    </row>
+    <row r="54" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B54" s="1"/>
+      <c r="C54" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-    </row>
-    <row r="55" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="14">
-        <v>1</v>
-      </c>
-      <c r="E55" s="14">
-        <v>1</v>
-      </c>
-      <c r="F55" s="14">
-        <v>0</v>
-      </c>
-      <c r="G55" s="15">
-        <v>0</v>
-      </c>
-      <c r="H55" s="28"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
+      <c r="N54" s="14"/>
+    </row>
+    <row r="55" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B55" s="1"/>
+      <c r="C55" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-    </row>
-    <row r="56" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="14">
-        <v>0</v>
-      </c>
-      <c r="E56" s="16">
-        <v>0</v>
-      </c>
-      <c r="F56" s="14">
-        <v>1</v>
-      </c>
-      <c r="G56" s="17">
-        <v>0</v>
-      </c>
-      <c r="H56" s="28"/>
+      <c r="N55" s="14"/>
+    </row>
+    <row r="56" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B56" s="1"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-    </row>
-    <row r="57" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="14">
-        <v>1</v>
-      </c>
-      <c r="E57" s="16">
-        <v>0</v>
-      </c>
-      <c r="F57" s="14">
-        <v>1</v>
-      </c>
-      <c r="G57" s="17">
-        <v>1</v>
-      </c>
-      <c r="H57" s="28"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-    </row>
-    <row r="58" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N56" s="14"/>
+    </row>
+    <row r="57" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B57" s="1">
+        <v>2</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="14"/>
+    </row>
+    <row r="58" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="14">
-        <v>0</v>
-      </c>
-      <c r="E58" s="14">
-        <v>1</v>
-      </c>
-      <c r="F58" s="14">
-        <v>1</v>
-      </c>
-      <c r="G58" s="15">
-        <v>0</v>
-      </c>
-      <c r="H58" s="28"/>
+      <c r="D58" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-    </row>
-    <row r="59" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N58" s="14"/>
+    </row>
+    <row r="59" spans="2:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="14">
-        <v>1</v>
-      </c>
-      <c r="E59" s="14">
-        <v>1</v>
-      </c>
-      <c r="F59" s="14">
-        <v>1</v>
-      </c>
-      <c r="G59" s="15">
-        <v>1</v>
-      </c>
-      <c r="H59" s="28"/>
+      <c r="D59" s="25">
+        <v>0</v>
+      </c>
+      <c r="E59" s="25">
+        <v>0</v>
+      </c>
+      <c r="F59" s="26">
+        <v>0</v>
+      </c>
+      <c r="G59" s="27">
+        <v>0</v>
+      </c>
+      <c r="H59" s="26">
+        <v>0</v>
+      </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-    </row>
-    <row r="60" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="N59" s="18"/>
+    </row>
+    <row r="60" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+      <c r="D60" s="26">
+        <v>1</v>
+      </c>
+      <c r="E60" s="26">
+        <v>0</v>
+      </c>
+      <c r="F60" s="26">
+        <v>0</v>
+      </c>
+      <c r="G60" s="27">
+        <v>0</v>
+      </c>
+      <c r="H60" s="26">
+        <v>1</v>
+      </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-    </row>
-    <row r="61" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B61" s="1"/>
-      <c r="C61" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="2"/>
+      <c r="N60" s="18"/>
+    </row>
+    <row r="61" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="26">
+        <v>0</v>
+      </c>
+      <c r="E61" s="26">
+        <v>1</v>
+      </c>
+      <c r="F61" s="26">
+        <v>0</v>
+      </c>
+      <c r="G61" s="27">
+        <v>0</v>
+      </c>
+      <c r="H61" s="26">
+        <v>1</v>
+      </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-    </row>
-    <row r="62" spans="2:14" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="N61" s="18"/>
+    </row>
+    <row r="62" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F62" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="28"/>
+      <c r="D62" s="26">
+        <v>1</v>
+      </c>
+      <c r="E62" s="26">
+        <v>1</v>
+      </c>
+      <c r="F62" s="26">
+        <v>0</v>
+      </c>
+      <c r="G62" s="27">
+        <v>1</v>
+      </c>
+      <c r="H62" s="26">
+        <v>0</v>
+      </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-    </row>
-    <row r="63" spans="2:14" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="N62" s="18"/>
+    </row>
+    <row r="63" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="16">
+      <c r="D63" s="8">
         <v>0</v>
       </c>
-      <c r="F63" s="14">
+      <c r="E63" s="10">
         <v>0</v>
       </c>
-      <c r="G63" s="17">
+      <c r="F63" s="8">
         <v>1</v>
       </c>
-      <c r="H63" s="28"/>
+      <c r="G63" s="11">
+        <v>0</v>
+      </c>
+      <c r="H63" s="18">
+        <v>1</v>
+      </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-    </row>
-    <row r="64" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N63" s="14"/>
+    </row>
+    <row r="64" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="16">
+      <c r="D64" s="8">
         <v>1</v>
       </c>
-      <c r="F64" s="14">
+      <c r="E64" s="10">
         <v>0</v>
       </c>
-      <c r="G64" s="17">
+      <c r="F64" s="8">
+        <v>1</v>
+      </c>
+      <c r="G64" s="11">
+        <v>1</v>
+      </c>
+      <c r="H64" s="18">
         <v>0</v>
       </c>
-      <c r="H64" s="28"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-    </row>
-    <row r="65" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N64" s="14"/>
+    </row>
+    <row r="65" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14">
+      <c r="D65" s="8">
         <v>0</v>
       </c>
-      <c r="F65" s="14">
+      <c r="E65" s="8">
         <v>1</v>
       </c>
-      <c r="G65" s="15">
+      <c r="F65" s="8">
+        <v>1</v>
+      </c>
+      <c r="G65" s="9">
+        <v>1</v>
+      </c>
+      <c r="H65" s="18">
         <v>0</v>
       </c>
-      <c r="H65" s="28"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -2315,20 +2182,24 @@
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
     </row>
-    <row r="66" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14">
+      <c r="D66" s="8">
         <v>1</v>
       </c>
-      <c r="F66" s="14">
+      <c r="E66" s="8">
         <v>1</v>
       </c>
-      <c r="G66" s="15">
+      <c r="F66" s="8">
         <v>1</v>
       </c>
-      <c r="H66" s="28"/>
+      <c r="G66" s="9">
+        <v>1</v>
+      </c>
+      <c r="H66" s="18">
+        <v>1</v>
+      </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -2336,7 +2207,7 @@
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
     </row>
-    <row r="67" spans="2:16" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2351,520 +2222,363 @@
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
     </row>
-    <row r="68" spans="2:16" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B68" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="D68" s="46"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
-      <c r="J68" s="46"/>
-      <c r="K68" s="46"/>
-      <c r="L68" s="46"/>
+    <row r="68" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
     </row>
-    <row r="69" spans="2:16" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B69" s="1"/>
-      <c r="C69" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D69" s="45"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="45"/>
-      <c r="K69" s="45"/>
-      <c r="L69" s="45"/>
-      <c r="M69" s="2"/>
+    <row r="69" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="1">
+        <v>3</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="20"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
       <c r="N69" s="2"/>
     </row>
-    <row r="70" spans="2:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="29"/>
-      <c r="C70" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" s="42"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="J70" s="42"/>
-      <c r="K70" s="42"/>
-      <c r="L70" s="42"/>
-    </row>
-    <row r="71" spans="2:16" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B70" s="1"/>
+      <c r="C70" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="30"/>
+      <c r="N70" s="2"/>
+    </row>
+    <row r="71" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B71" s="2"/>
-      <c r="C71" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="H71" s="5"/>
-      <c r="J71" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K71" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L71" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="C71" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
       <c r="N71" s="2"/>
-      <c r="O71" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="P71" s="34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="72" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B72" s="2"/>
-      <c r="C72" s="33">
+      <c r="C72" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="2"/>
+    </row>
+    <row r="73" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B73" s="1"/>
+      <c r="C73" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="30"/>
+      <c r="N73" s="2"/>
+    </row>
+    <row r="74" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B74" s="2"/>
+      <c r="C74" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="2"/>
+    </row>
+    <row r="75" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B75" s="2"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="2"/>
+    </row>
+    <row r="76" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B76" s="1">
+        <v>4</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" s="22"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="2"/>
+    </row>
+    <row r="77" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+    </row>
+    <row r="78" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="10">
         <v>0</v>
       </c>
-      <c r="D72" s="4">
+      <c r="F78" s="8">
         <v>0</v>
       </c>
-      <c r="E72" s="33">
+      <c r="G78" s="11">
         <v>0</v>
       </c>
-      <c r="F72" s="4">
+      <c r="H78" s="18">
         <v>0</v>
       </c>
-      <c r="G72" s="6">
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+    </row>
+    <row r="79" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="10">
         <v>1</v>
       </c>
-      <c r="H72" s="2"/>
-      <c r="J72" s="4">
+      <c r="F79" s="8">
         <v>0</v>
       </c>
-      <c r="K72" s="4">
+      <c r="G79" s="11">
         <v>0</v>
       </c>
-      <c r="L72" s="6">
+      <c r="H79" s="18">
         <v>1</v>
       </c>
-      <c r="N72" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O72" s="30">
-        <v>12</v>
-      </c>
-      <c r="P72" s="30">
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+    </row>
+    <row r="80" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8">
+        <v>0</v>
+      </c>
+      <c r="F80" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B73" s="2"/>
-      <c r="C73" s="33">
+      <c r="G80" s="9">
+        <v>0</v>
+      </c>
+      <c r="H80" s="18">
         <v>1</v>
       </c>
-      <c r="D73" s="4">
-        <v>0</v>
-      </c>
-      <c r="E73" s="33">
-        <v>0</v>
-      </c>
-      <c r="F73" s="4">
-        <v>0</v>
-      </c>
-      <c r="G73" s="6">
-        <v>1</v>
-      </c>
-      <c r="H73" s="2"/>
-      <c r="J73" s="3">
-        <v>1</v>
-      </c>
-      <c r="K73" s="3">
-        <v>0</v>
-      </c>
-      <c r="L73" s="7">
-        <v>0</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O73" s="30">
-        <v>3</v>
-      </c>
-      <c r="P73" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:16" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B74" s="2"/>
-      <c r="C74" s="3">
-        <v>0</v>
-      </c>
-      <c r="D74" s="3">
-        <v>1</v>
-      </c>
-      <c r="E74" s="3">
-        <v>0</v>
-      </c>
-      <c r="F74" s="3">
-        <v>0</v>
-      </c>
-      <c r="G74" s="7">
-        <v>0</v>
-      </c>
-      <c r="H74" s="2"/>
-      <c r="J74" s="3">
-        <v>0</v>
-      </c>
-      <c r="K74" s="3">
-        <v>1</v>
-      </c>
-      <c r="L74" s="7">
-        <v>0</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O74" s="30">
-        <v>4</v>
-      </c>
-      <c r="P74" s="30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="2:16" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B75" s="2"/>
-      <c r="C75" s="3">
-        <v>1</v>
-      </c>
-      <c r="D75" s="3">
-        <v>1</v>
-      </c>
-      <c r="E75" s="3">
-        <v>0</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0</v>
-      </c>
-      <c r="G75" s="7">
-        <v>0</v>
-      </c>
-      <c r="H75" s="2"/>
-      <c r="J75" s="3">
-        <v>1</v>
-      </c>
-      <c r="K75" s="3">
-        <v>1</v>
-      </c>
-      <c r="L75" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="2:16" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B76" s="2"/>
-      <c r="C76" s="33">
-        <v>0</v>
-      </c>
-      <c r="D76" s="4">
-        <v>0</v>
-      </c>
-      <c r="E76" s="33">
-        <v>1</v>
-      </c>
-      <c r="F76" s="4">
-        <v>0</v>
-      </c>
-      <c r="G76" s="6">
-        <v>1</v>
-      </c>
-      <c r="H76" s="2"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="7"/>
-    </row>
-    <row r="77" spans="2:16" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B77" s="2"/>
-      <c r="C77" s="33">
-        <v>1</v>
-      </c>
-      <c r="D77" s="4">
-        <v>0</v>
-      </c>
-      <c r="E77" s="33">
-        <v>1</v>
-      </c>
-      <c r="F77" s="4">
-        <v>0</v>
-      </c>
-      <c r="G77" s="6">
-        <v>1</v>
-      </c>
-      <c r="H77" s="2"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="7"/>
-    </row>
-    <row r="78" spans="2:16" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B78" s="2"/>
-      <c r="C78" s="3">
-        <v>0</v>
-      </c>
-      <c r="D78" s="3">
-        <v>1</v>
-      </c>
-      <c r="E78" s="3">
-        <v>1</v>
-      </c>
-      <c r="F78" s="3">
-        <v>0</v>
-      </c>
-      <c r="G78" s="7">
-        <v>0</v>
-      </c>
-      <c r="H78" s="2"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="7"/>
-    </row>
-    <row r="79" spans="2:16" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B79" s="2"/>
-      <c r="C79" s="3">
-        <v>1</v>
-      </c>
-      <c r="D79" s="3">
-        <v>1</v>
-      </c>
-      <c r="E79" s="3">
-        <v>1</v>
-      </c>
-      <c r="F79" s="3">
-        <v>0</v>
-      </c>
-      <c r="G79" s="7">
-        <v>0</v>
-      </c>
-      <c r="H79" s="2"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="7"/>
-    </row>
-    <row r="80" spans="2:16" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B80" s="2"/>
-      <c r="C80" s="3">
-        <v>0</v>
-      </c>
-      <c r="D80" s="3">
-        <v>0</v>
-      </c>
-      <c r="E80" s="3">
-        <v>0</v>
-      </c>
-      <c r="F80" s="3">
-        <v>1</v>
-      </c>
-      <c r="G80" s="7">
-        <v>0</v>
-      </c>
-      <c r="H80" s="2"/>
       <c r="I80" s="2"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="30"/>
-      <c r="L80" s="30"/>
-      <c r="M80" s="30"/>
-      <c r="N80" s="30"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
     </row>
     <row r="81" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B81" s="2"/>
-      <c r="C81" s="3">
+      <c r="C81" s="2"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8">
         <v>1</v>
       </c>
-      <c r="D81" s="3">
+      <c r="F81" s="8">
+        <v>1</v>
+      </c>
+      <c r="G81" s="9">
+        <v>1</v>
+      </c>
+      <c r="H81" s="18">
         <v>0</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1</v>
-      </c>
-      <c r="G81" s="7">
-        <v>0</v>
-      </c>
-      <c r="H81" s="2"/>
       <c r="I81" s="2"/>
-      <c r="J81" s="30"/>
-      <c r="K81" s="30"/>
-      <c r="L81" s="30"/>
-      <c r="M81" s="30"/>
-      <c r="N81" s="30"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
     </row>
     <row r="82" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B82" s="2"/>
-      <c r="C82" s="3">
-        <v>0</v>
-      </c>
-      <c r="D82" s="3">
-        <v>1</v>
-      </c>
-      <c r="E82" s="3">
-        <v>0</v>
-      </c>
-      <c r="F82" s="3">
-        <v>1</v>
-      </c>
-      <c r="G82" s="7">
-        <v>0</v>
-      </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
-      <c r="J82" s="30"/>
-      <c r="K82" s="30"/>
-      <c r="L82" s="30"/>
-      <c r="M82" s="30"/>
-      <c r="N82" s="30"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
     </row>
     <row r="83" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B83" s="2"/>
-      <c r="C83" s="3">
-        <v>1</v>
-      </c>
-      <c r="D83" s="3">
-        <v>1</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>1</v>
-      </c>
-      <c r="G83" s="7">
-        <v>0</v>
-      </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
-      <c r="J83" s="30"/>
-      <c r="K83" s="30"/>
-      <c r="L83" s="30"/>
-      <c r="M83" s="30"/>
-      <c r="N83" s="30"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
     </row>
     <row r="84" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B84" s="2"/>
-      <c r="C84" s="3">
-        <v>0</v>
-      </c>
-      <c r="D84" s="3">
-        <v>0</v>
-      </c>
-      <c r="E84" s="3">
-        <v>1</v>
-      </c>
-      <c r="F84" s="3">
-        <v>1</v>
-      </c>
-      <c r="G84" s="7">
-        <v>0</v>
-      </c>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="30"/>
-      <c r="L84" s="30"/>
-      <c r="M84" s="30"/>
-      <c r="N84" s="30"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
     </row>
     <row r="85" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B85" s="2"/>
-      <c r="C85" s="3">
-        <v>1</v>
-      </c>
-      <c r="D85" s="3">
-        <v>0</v>
-      </c>
-      <c r="E85" s="3">
-        <v>1</v>
-      </c>
-      <c r="F85" s="3">
-        <v>1</v>
-      </c>
-      <c r="G85" s="7">
-        <v>0</v>
-      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="30"/>
-      <c r="L85" s="30"/>
-      <c r="M85" s="30"/>
-      <c r="N85" s="30"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
     </row>
     <row r="86" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B86" s="2"/>
-      <c r="C86" s="3">
-        <v>0</v>
-      </c>
-      <c r="D86" s="3">
-        <v>1</v>
-      </c>
-      <c r="E86" s="3">
-        <v>1</v>
-      </c>
-      <c r="F86" s="3">
-        <v>1</v>
-      </c>
-      <c r="G86" s="7">
-        <v>0</v>
-      </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
-      <c r="J86" s="30"/>
-      <c r="K86" s="30"/>
-      <c r="L86" s="30"/>
-      <c r="M86" s="30"/>
-      <c r="N86" s="30"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
     </row>
     <row r="87" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B87" s="2"/>
-      <c r="C87" s="3">
-        <v>1</v>
-      </c>
-      <c r="D87" s="3">
-        <v>1</v>
-      </c>
-      <c r="E87" s="3">
-        <v>1</v>
-      </c>
-      <c r="F87" s="3">
-        <v>1</v>
-      </c>
-      <c r="G87" s="7">
-        <v>0</v>
-      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="30"/>
-      <c r="L87" s="30"/>
-      <c r="M87" s="30"/>
-      <c r="N87" s="30"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
     </row>
     <row r="88" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B88" s="2"/>
@@ -2896,17 +2610,13 @@
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
     </row>
-    <row r="90" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B90" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
+    <row r="90" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
@@ -2915,345 +2625,193 @@
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
     </row>
-    <row r="91" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="1"/>
-      <c r="C91" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="45"/>
-      <c r="E91" s="45"/>
-      <c r="F91" s="45"/>
-      <c r="G91" s="45"/>
-      <c r="H91" s="45"/>
-      <c r="I91" s="45"/>
-      <c r="J91" s="45"/>
-      <c r="K91" s="45"/>
-      <c r="L91" s="45"/>
+    <row r="91" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
     </row>
-    <row r="92" spans="2:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="1"/>
-      <c r="C92" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="D92" s="43"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="43"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
-      <c r="I92" s="43"/>
-      <c r="J92" s="43"/>
-      <c r="K92" s="43"/>
-      <c r="L92" s="43"/>
+    <row r="92" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
     </row>
     <row r="93" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B93" s="9"/>
-      <c r="C93" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="44"/>
-      <c r="E93" s="44"/>
-      <c r="F93" s="44"/>
-      <c r="G93" s="44"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
       <c r="H93" s="2"/>
-      <c r="I93" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="J93" s="44"/>
-      <c r="K93" s="44"/>
-      <c r="L93" s="44"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
     </row>
-    <row r="94" spans="2:14" ht="20.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B94" s="2"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E94" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F94" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
-      <c r="J94" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="K94" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="L94" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M94" s="11" t="s">
-        <v>17</v>
-      </c>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
       <c r="N94" s="2"/>
     </row>
-    <row r="95" spans="2:14" ht="16.5" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B95" s="2"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="18">
-        <v>0</v>
-      </c>
-      <c r="E95" s="19">
-        <v>0</v>
-      </c>
-      <c r="F95" s="18">
-        <v>0</v>
-      </c>
-      <c r="G95" s="21">
-        <v>1</v>
-      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
-      <c r="J95" s="18">
-        <v>0</v>
-      </c>
-      <c r="K95" s="19">
-        <v>0</v>
-      </c>
-      <c r="L95" s="18">
-        <v>0</v>
-      </c>
-      <c r="M95" s="21">
-        <v>1</v>
-      </c>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
       <c r="N95" s="2"/>
     </row>
     <row r="96" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B96" s="2"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="14">
-        <v>0</v>
-      </c>
-      <c r="E96" s="16">
-        <v>0</v>
-      </c>
-      <c r="F96" s="14">
-        <v>1</v>
-      </c>
-      <c r="G96" s="17">
-        <v>0</v>
-      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
-      <c r="J96" s="22">
-        <v>1</v>
-      </c>
-      <c r="K96" s="23">
-        <v>0</v>
-      </c>
-      <c r="L96" s="22">
-        <v>0</v>
-      </c>
-      <c r="M96" s="24">
-        <v>1</v>
-      </c>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
     </row>
     <row r="97" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B97" s="2"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="35">
-        <v>0</v>
-      </c>
-      <c r="E97" s="35">
-        <v>1</v>
-      </c>
-      <c r="F97" s="35">
-        <v>0</v>
-      </c>
-      <c r="G97" s="36">
-        <v>1</v>
-      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
-      <c r="J97" s="35">
-        <v>0</v>
-      </c>
-      <c r="K97" s="35">
-        <v>1</v>
-      </c>
-      <c r="L97" s="35">
-        <v>0</v>
-      </c>
-      <c r="M97" s="36">
-        <v>1</v>
-      </c>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
       <c r="N97" s="2"/>
     </row>
     <row r="98" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B98" s="2"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="14">
-        <v>0</v>
-      </c>
-      <c r="E98" s="14">
-        <v>1</v>
-      </c>
-      <c r="F98" s="14">
-        <v>1</v>
-      </c>
-      <c r="G98" s="15">
-        <v>0</v>
-      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
-      <c r="J98" s="25">
-        <v>1</v>
-      </c>
-      <c r="K98" s="25">
-        <v>1</v>
-      </c>
-      <c r="L98" s="25">
-        <v>0</v>
-      </c>
-      <c r="M98" s="26">
-        <v>1</v>
-      </c>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
       <c r="N98" s="2"/>
     </row>
     <row r="99" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B99" s="2"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="22">
-        <v>1</v>
-      </c>
-      <c r="E99" s="23">
-        <v>0</v>
-      </c>
-      <c r="F99" s="22">
-        <v>0</v>
-      </c>
-      <c r="G99" s="24">
-        <v>1</v>
-      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
-      <c r="J99" s="14">
-        <v>0</v>
-      </c>
-      <c r="K99" s="16">
-        <v>0</v>
-      </c>
-      <c r="L99" s="14">
-        <v>1</v>
-      </c>
-      <c r="M99" s="17">
-        <v>0</v>
-      </c>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
       <c r="N99" s="2"/>
     </row>
     <row r="100" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B100" s="2"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="14">
-        <v>1</v>
-      </c>
-      <c r="E100" s="16">
-        <v>0</v>
-      </c>
-      <c r="F100" s="14">
-        <v>1</v>
-      </c>
-      <c r="G100" s="17">
-        <v>0</v>
-      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
-      <c r="J100" s="14">
-        <v>1</v>
-      </c>
-      <c r="K100" s="16">
-        <v>0</v>
-      </c>
-      <c r="L100" s="14">
-        <v>1</v>
-      </c>
-      <c r="M100" s="17">
-        <v>0</v>
-      </c>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
       <c r="N100" s="2"/>
     </row>
     <row r="101" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B101" s="2"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="25">
-        <v>1</v>
-      </c>
-      <c r="E101" s="25">
-        <v>1</v>
-      </c>
-      <c r="F101" s="25">
-        <v>0</v>
-      </c>
-      <c r="G101" s="26">
-        <v>1</v>
-      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
-      <c r="J101" s="14">
-        <v>0</v>
-      </c>
-      <c r="K101" s="14">
-        <v>1</v>
-      </c>
-      <c r="L101" s="14">
-        <v>1</v>
-      </c>
-      <c r="M101" s="15">
-        <v>0</v>
-      </c>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
       <c r="N101" s="2"/>
     </row>
     <row r="102" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B102" s="2"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="37">
-        <v>1</v>
-      </c>
-      <c r="E102" s="37">
-        <v>1</v>
-      </c>
-      <c r="F102" s="37">
-        <v>1</v>
-      </c>
-      <c r="G102" s="38">
-        <v>1</v>
-      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
-      <c r="J102" s="37">
-        <v>1</v>
-      </c>
-      <c r="K102" s="37">
-        <v>1</v>
-      </c>
-      <c r="L102" s="37">
-        <v>1</v>
-      </c>
-      <c r="M102" s="38">
-        <v>1</v>
-      </c>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
       <c r="N102" s="2"/>
     </row>
     <row r="103" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B103" s="2"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
@@ -3264,11 +2822,11 @@
     </row>
     <row r="104" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B104" s="2"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
@@ -3279,11 +2837,11 @@
     </row>
     <row r="105" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B105" s="2"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
@@ -3294,11 +2852,11 @@
     </row>
     <row r="106" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B106" s="2"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
@@ -3309,11 +2867,11 @@
     </row>
     <row r="107" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B107" s="2"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
@@ -3324,11 +2882,11 @@
     </row>
     <row r="108" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B108" s="2"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="12"/>
-      <c r="G108" s="12"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
@@ -3339,11 +2897,11 @@
     </row>
     <row r="109" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B109" s="2"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
@@ -3354,11 +2912,11 @@
     </row>
     <row r="110" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B110" s="2"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="12"/>
-      <c r="G110" s="12"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
@@ -9367,359 +8925,38 @@
       <c r="M510" s="2"/>
       <c r="N510" s="2"/>
     </row>
-    <row r="511" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B511" s="2"/>
-      <c r="C511" s="2"/>
-      <c r="D511" s="2"/>
-      <c r="E511" s="2"/>
-      <c r="F511" s="2"/>
-      <c r="G511" s="2"/>
-      <c r="H511" s="2"/>
-      <c r="I511" s="2"/>
-      <c r="J511" s="2"/>
-      <c r="K511" s="2"/>
-      <c r="L511" s="2"/>
-      <c r="M511" s="2"/>
-      <c r="N511" s="2"/>
-    </row>
-    <row r="512" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B512" s="2"/>
-      <c r="C512" s="2"/>
-      <c r="D512" s="2"/>
-      <c r="E512" s="2"/>
-      <c r="F512" s="2"/>
-      <c r="G512" s="2"/>
-      <c r="H512" s="2"/>
-      <c r="I512" s="2"/>
-      <c r="J512" s="2"/>
-      <c r="K512" s="2"/>
-      <c r="L512" s="2"/>
-      <c r="M512" s="2"/>
-      <c r="N512" s="2"/>
-    </row>
-    <row r="513" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B513" s="2"/>
-      <c r="C513" s="2"/>
-      <c r="D513" s="2"/>
-      <c r="E513" s="2"/>
-      <c r="F513" s="2"/>
-      <c r="G513" s="2"/>
-      <c r="H513" s="2"/>
-      <c r="I513" s="2"/>
-      <c r="J513" s="2"/>
-      <c r="K513" s="2"/>
-      <c r="L513" s="2"/>
-      <c r="M513" s="2"/>
-      <c r="N513" s="2"/>
-    </row>
-    <row r="514" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B514" s="2"/>
-      <c r="C514" s="2"/>
-      <c r="D514" s="2"/>
-      <c r="E514" s="2"/>
-      <c r="F514" s="2"/>
-      <c r="G514" s="2"/>
-      <c r="H514" s="2"/>
-      <c r="I514" s="2"/>
-      <c r="J514" s="2"/>
-      <c r="K514" s="2"/>
-      <c r="L514" s="2"/>
-      <c r="M514" s="2"/>
-      <c r="N514" s="2"/>
-    </row>
-    <row r="515" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B515" s="2"/>
-      <c r="C515" s="2"/>
-      <c r="D515" s="2"/>
-      <c r="E515" s="2"/>
-      <c r="F515" s="2"/>
-      <c r="G515" s="2"/>
-      <c r="H515" s="2"/>
-      <c r="I515" s="2"/>
-      <c r="J515" s="2"/>
-      <c r="K515" s="2"/>
-      <c r="L515" s="2"/>
-      <c r="M515" s="2"/>
-      <c r="N515" s="2"/>
-    </row>
-    <row r="516" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B516" s="2"/>
-      <c r="C516" s="2"/>
-      <c r="D516" s="2"/>
-      <c r="E516" s="2"/>
-      <c r="F516" s="2"/>
-      <c r="G516" s="2"/>
-      <c r="H516" s="2"/>
-      <c r="I516" s="2"/>
-      <c r="J516" s="2"/>
-      <c r="K516" s="2"/>
-      <c r="L516" s="2"/>
-      <c r="M516" s="2"/>
-      <c r="N516" s="2"/>
-    </row>
-    <row r="517" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B517" s="2"/>
-      <c r="C517" s="2"/>
-      <c r="D517" s="2"/>
-      <c r="E517" s="2"/>
-      <c r="F517" s="2"/>
-      <c r="G517" s="2"/>
-      <c r="H517" s="2"/>
-      <c r="I517" s="2"/>
-      <c r="J517" s="2"/>
-      <c r="K517" s="2"/>
-      <c r="L517" s="2"/>
-      <c r="M517" s="2"/>
-      <c r="N517" s="2"/>
-    </row>
-    <row r="518" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B518" s="2"/>
-      <c r="C518" s="2"/>
-      <c r="D518" s="2"/>
-      <c r="E518" s="2"/>
-      <c r="F518" s="2"/>
-      <c r="G518" s="2"/>
-      <c r="H518" s="2"/>
-      <c r="I518" s="2"/>
-      <c r="J518" s="2"/>
-      <c r="K518" s="2"/>
-      <c r="L518" s="2"/>
-      <c r="M518" s="2"/>
-      <c r="N518" s="2"/>
-    </row>
-    <row r="519" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B519" s="2"/>
-      <c r="C519" s="2"/>
-      <c r="D519" s="2"/>
-      <c r="E519" s="2"/>
-      <c r="F519" s="2"/>
-      <c r="G519" s="2"/>
-      <c r="H519" s="2"/>
-      <c r="I519" s="2"/>
-      <c r="J519" s="2"/>
-      <c r="K519" s="2"/>
-      <c r="L519" s="2"/>
-      <c r="M519" s="2"/>
-      <c r="N519" s="2"/>
-    </row>
-    <row r="520" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B520" s="2"/>
-      <c r="C520" s="2"/>
-      <c r="D520" s="2"/>
-      <c r="E520" s="2"/>
-      <c r="F520" s="2"/>
-      <c r="G520" s="2"/>
-      <c r="H520" s="2"/>
-      <c r="I520" s="2"/>
-      <c r="J520" s="2"/>
-      <c r="K520" s="2"/>
-      <c r="L520" s="2"/>
-      <c r="M520" s="2"/>
-      <c r="N520" s="2"/>
-    </row>
-    <row r="521" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B521" s="2"/>
-      <c r="C521" s="2"/>
-      <c r="D521" s="2"/>
-      <c r="E521" s="2"/>
-      <c r="F521" s="2"/>
-      <c r="G521" s="2"/>
-      <c r="H521" s="2"/>
-      <c r="I521" s="2"/>
-      <c r="J521" s="2"/>
-      <c r="K521" s="2"/>
-      <c r="L521" s="2"/>
-      <c r="M521" s="2"/>
-      <c r="N521" s="2"/>
-    </row>
-    <row r="522" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B522" s="2"/>
-      <c r="C522" s="2"/>
-      <c r="D522" s="2"/>
-      <c r="E522" s="2"/>
-      <c r="F522" s="2"/>
-      <c r="G522" s="2"/>
-      <c r="H522" s="2"/>
-      <c r="I522" s="2"/>
-      <c r="J522" s="2"/>
-      <c r="K522" s="2"/>
-      <c r="L522" s="2"/>
-      <c r="M522" s="2"/>
-      <c r="N522" s="2"/>
-    </row>
-    <row r="523" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B523" s="2"/>
-      <c r="C523" s="2"/>
-      <c r="D523" s="2"/>
-      <c r="E523" s="2"/>
-      <c r="F523" s="2"/>
-      <c r="G523" s="2"/>
-      <c r="H523" s="2"/>
-      <c r="I523" s="2"/>
-      <c r="J523" s="2"/>
-      <c r="K523" s="2"/>
-      <c r="L523" s="2"/>
-      <c r="M523" s="2"/>
-      <c r="N523" s="2"/>
-    </row>
-    <row r="524" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B524" s="2"/>
-      <c r="C524" s="2"/>
-      <c r="D524" s="2"/>
-      <c r="E524" s="2"/>
-      <c r="F524" s="2"/>
-      <c r="G524" s="2"/>
-      <c r="H524" s="2"/>
-      <c r="I524" s="2"/>
-      <c r="J524" s="2"/>
-      <c r="K524" s="2"/>
-      <c r="L524" s="2"/>
-      <c r="M524" s="2"/>
-      <c r="N524" s="2"/>
-    </row>
-    <row r="525" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B525" s="2"/>
-      <c r="C525" s="2"/>
-      <c r="D525" s="2"/>
-      <c r="E525" s="2"/>
-      <c r="F525" s="2"/>
-      <c r="G525" s="2"/>
-      <c r="H525" s="2"/>
-      <c r="I525" s="2"/>
-      <c r="J525" s="2"/>
-      <c r="K525" s="2"/>
-      <c r="L525" s="2"/>
-      <c r="M525" s="2"/>
-      <c r="N525" s="2"/>
-    </row>
-    <row r="526" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B526" s="2"/>
-      <c r="C526" s="2"/>
-      <c r="D526" s="2"/>
-      <c r="E526" s="2"/>
-      <c r="F526" s="2"/>
-      <c r="G526" s="2"/>
-      <c r="H526" s="2"/>
-      <c r="I526" s="2"/>
-      <c r="J526" s="2"/>
-      <c r="K526" s="2"/>
-      <c r="L526" s="2"/>
-      <c r="M526" s="2"/>
-      <c r="N526" s="2"/>
-    </row>
-    <row r="527" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B527" s="2"/>
-      <c r="C527" s="2"/>
-      <c r="D527" s="2"/>
-      <c r="E527" s="2"/>
-      <c r="F527" s="2"/>
-      <c r="G527" s="2"/>
-      <c r="H527" s="2"/>
-      <c r="I527" s="2"/>
-      <c r="J527" s="2"/>
-      <c r="K527" s="2"/>
-      <c r="L527" s="2"/>
-      <c r="M527" s="2"/>
-      <c r="N527" s="2"/>
-    </row>
-    <row r="528" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B528" s="2"/>
-      <c r="C528" s="2"/>
-      <c r="D528" s="2"/>
-      <c r="E528" s="2"/>
-      <c r="F528" s="2"/>
-      <c r="G528" s="2"/>
-      <c r="H528" s="2"/>
-      <c r="I528" s="2"/>
-      <c r="J528" s="2"/>
-      <c r="K528" s="2"/>
-      <c r="L528" s="2"/>
-      <c r="M528" s="2"/>
-      <c r="N528" s="2"/>
-    </row>
-    <row r="529" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B529" s="2"/>
-      <c r="C529" s="2"/>
-      <c r="D529" s="2"/>
-      <c r="E529" s="2"/>
-      <c r="F529" s="2"/>
-      <c r="G529" s="2"/>
-      <c r="H529" s="2"/>
-      <c r="I529" s="2"/>
-      <c r="J529" s="2"/>
-      <c r="K529" s="2"/>
-      <c r="L529" s="2"/>
-      <c r="M529" s="2"/>
-      <c r="N529" s="2"/>
-    </row>
-    <row r="530" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B530" s="2"/>
-      <c r="C530" s="2"/>
-      <c r="D530" s="2"/>
-      <c r="E530" s="2"/>
-      <c r="F530" s="2"/>
-      <c r="G530" s="2"/>
-      <c r="H530" s="2"/>
-      <c r="I530" s="2"/>
-      <c r="J530" s="2"/>
-      <c r="K530" s="2"/>
-      <c r="L530" s="2"/>
-      <c r="M530" s="2"/>
-      <c r="N530" s="2"/>
-    </row>
-    <row r="531" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B531" s="2"/>
-      <c r="C531" s="2"/>
-      <c r="D531" s="2"/>
-      <c r="E531" s="2"/>
-      <c r="F531" s="2"/>
-      <c r="G531" s="2"/>
-      <c r="H531" s="2"/>
-      <c r="I531" s="2"/>
-      <c r="J531" s="2"/>
-      <c r="K531" s="2"/>
-      <c r="L531" s="2"/>
-      <c r="M531" s="2"/>
-      <c r="N531" s="2"/>
-    </row>
-    <row r="532" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B532" s="2"/>
-      <c r="C532" s="2"/>
-      <c r="D532" s="2"/>
-      <c r="E532" s="2"/>
-      <c r="F532" s="2"/>
-      <c r="G532" s="2"/>
-      <c r="H532" s="2"/>
-      <c r="I532" s="2"/>
-      <c r="J532" s="2"/>
-      <c r="K532" s="2"/>
-      <c r="L532" s="2"/>
-      <c r="M532" s="2"/>
-      <c r="N532" s="2"/>
-    </row>
-    <row r="533" spans="2:14" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B533" s="2"/>
-      <c r="C533" s="2"/>
-      <c r="D533" s="2"/>
-      <c r="E533" s="2"/>
-      <c r="F533" s="2"/>
-      <c r="G533" s="2"/>
-      <c r="H533" s="2"/>
-      <c r="I533" s="2"/>
-      <c r="J533" s="2"/>
-      <c r="K533" s="2"/>
-      <c r="L533" s="2"/>
-      <c r="M533" s="2"/>
-      <c r="N533" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="C26:M26"/>
-    <mergeCell ref="C27:M27"/>
-    <mergeCell ref="C28:M28"/>
-    <mergeCell ref="C30:M30"/>
-    <mergeCell ref="C31:M31"/>
-    <mergeCell ref="C29:M29"/>
+  <mergeCells count="43">
+    <mergeCell ref="C76:M76"/>
+    <mergeCell ref="C51:K51"/>
+    <mergeCell ref="C52:K52"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C71:M71"/>
+    <mergeCell ref="C72:M72"/>
+    <mergeCell ref="C73:M73"/>
+    <mergeCell ref="C74:M74"/>
+    <mergeCell ref="C75:M75"/>
+    <mergeCell ref="C18:M18"/>
+    <mergeCell ref="C32:M32"/>
+    <mergeCell ref="C42:M42"/>
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C4:M4"/>
+    <mergeCell ref="C2:M2"/>
+    <mergeCell ref="C3:M3"/>
+    <mergeCell ref="C33:M33"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C41:L41"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="C57:M57"/>
+    <mergeCell ref="C69:M69"/>
+    <mergeCell ref="C70:M70"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C5:G5"/>
@@ -9727,26 +8964,12 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C68:L68"/>
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C91:L91"/>
-    <mergeCell ref="C92:L92"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="I93:L93"/>
-    <mergeCell ref="I70:L70"/>
-    <mergeCell ref="C4:M4"/>
-    <mergeCell ref="C2:M2"/>
-    <mergeCell ref="C3:M3"/>
-    <mergeCell ref="C34:M34"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C33:K33"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="C69:L69"/>
-    <mergeCell ref="C18:M18"/>
-    <mergeCell ref="C49:M49"/>
-    <mergeCell ref="C50:M50"/>
-    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="C26:M26"/>
+    <mergeCell ref="C27:M27"/>
+    <mergeCell ref="C28:M28"/>
+    <mergeCell ref="C30:M30"/>
+    <mergeCell ref="C31:M31"/>
+    <mergeCell ref="C29:M29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
